--- a/test.xlsx
+++ b/test.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arsenal: Kieran Tierney (knee) and Thomas Partey (thigh) look set to miss the visit of Leeds United, while further news is awaited on Ben White after the defender missed the win over West Ham United with a tight hamstring. Limping from the field of play in east London were Takehiro Tomiyasu and Bukayo Saka but the news was positive from Mikel Arteta on those two, with fatigue cited as the reason. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Arsenal: </t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aston Villa: Lucas Digne made a shock early return from a collarbone injury for Aston Villa’s win over relegated Norwich City but it was one in, one out for the Villans, who lost Leon Bailey to an ankle injury that will now require an MRI scan and potentially end his season. Kortney Hause (abdomen) and Morgan Sanson (knock) were also sidelined for Saturday’s match. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Aston Villa: </t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brentford: Saman Ghoddos (ankle), Ethan Pinnock (hamstring), Sergi Canos (hamstring), Zanka (muscle) and Frank Onyeka (ankle) were all on the sidelines for Monday’s defeat at Manchester United but Pinnock and Canos could be back for Gameweek 36. Zanka and Onyeka’s seasons are over, however. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Bournemouth: </t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion: Jakub Moder remains out for the long term with a serious knee injury, while further news is awaited on Jeremy Sarmiento after he missed the win over Wolves with a “slight” hamstring injury. Brighton also saw Enock Mwepu limp from the field of play on Saturday with a groin tweak that Graham Potter hopes is more fatigue-related. Further updates to follow after the pre-match press conferences.</t>
+          <t>Brentford: Sergi Canos (hamstring) and Ethan Pinnock (knee) are out of Brentford's trip to Crystal Palace, while Pontus Jansson (foot) is "touch and go" and Kristoffer Ajer (match fitness) may be held back for more game-time with the B-team before he is thrust back into first-team football. Thomas Frank again reiterated that new signing Mikkel Damsgaard isn't ready to start, meanwhile, so bench duty beckons for the young Dane. Frank discussed rotation in his pre-match presser, saying that "four/five [changes] are too much but one is [not enough]" and that the "team that has done well" ought to be rewarded. Jansson will come in for Zanka if passed fit, while Vitaly Janelt has one of the strongest chances of a recall - either as a central midfielder at the expense of Josh Dasilva or as a third centre-half. Frank has started with a 4-3-3 against sides outside of the 'big six' over the last six months but that formation still looks vulnerable defensively, so Mads Roerslev or Janelt in for Yoane Wissa is one possibility if the Brentford boss wishes to revert to a 3-5-2. The underperforming Wissa is at risk even if Frank sticks with a 4-3-3, as Keane Lewis-Potter is pushing hard for a start.</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Burnley: Ben Mee (knee) and Johann Berg Gudmundsson (calf) sat out the win over Watford and likely won’t be back for Gameweek 36, while Ashley Westwood has a season-ending ankle injury. Erik Pieters (knee) is set to join in full training next week, however, while Maxwel Cornet (knee) should come back into the reckoning, too. Jay Rodriguez may also be available after his withdrawal from the line-up on Saturday was described as “precautionary” by his manager. The forward sustained a hamstring tweak in the warm-up. Further updates to follow after the pre-match press conferences.</t>
+          <t>Brighton and Hove Albion: Adam Lallana (calf), Jakub Moder (knee) and Jeremy Sarmiento (knee) are all out of the Fulham game, while assessment continues on Joel Veltman: the Dutchman was suffering from neck stiffness and dizzyness in Gameweek 4 but had "reported better" on Monday and a judgement call on his involvement will be left till late. Levi Colwill is a like-for-like option to come in for Veltman if Potter goes with a back three, with Tariq Lamptey an alternative replacement should the Brighton boss opt for a 4-4-2/4-3-3. Outside of Gameweek 4 full debutant Pervis Estupiñán, all the 10 other players in this predicted line-up have started every single league match in 2022/23. Rotation is a very real possibility given the Saturday-Tuesday turnaround but Albion have the most generous recovery time in the division between Gameweeks 5 and 6, so we may not see the wholesale alterations that Potter would have made in years gone by. Lamptey and Enock Mwepu are probably first in the queue for recalls if changes are made, with either player potentially replacing Estupiñán if two starts in 72 hours is too much for the new signing; Leandro Trossard could move to left wing-back if that happened.</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chelsea: Callum Hudson-Odoi (Achilles/back) and Ben Chilwell (knee) were again absent for the defeat at Everton, while Andreas Christensen and Ross Barkley weren’t involved despite returning to training after illness. N’Golo Kante also missed out with what his manager described as a “minor injury” but Thomas Tuchel sounded confident of the French midfielder being fit to face Wolves. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Chelsea: </t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Crystal Palace: Nathan Ferguson (muscle) was the only player absent from training ahead of Crystal Palace’s last-gasp win over Southampton, and the Eagles didn’t appear to suffer any fresh concerns in Saturday’s victory. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Crystal Palace: </t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Everton: Dominic Calvert-Lewin was back on the bench on Sunday after recovering from a quad injury. Donny van de Beek (groin) and Andre Gomes (knock) missed out for the second straight Gameweek with supposedly minor injuries, while Andros Townsend (knee), Nathan Patterson (ankle) and Ben Godfrey (thigh) will again be absent this weekend and likely the rest of the season. Richarlison‘s exit at Goodison Park was attributed to cramp by Frank Lampard but news is now awaited on whether the Football Association decides to take any action over the Brazilian’s flare toss. Further updates to follow after the pre-match press conferences.</t>
+          <t>Everton: Mason Holgate (knee) has joined Abdoulaye Doucoure (hamstring), Andros Townsend (knee), Dominic Calvert-Lewin (knee), Yerry Mina (ankle) and Ben Godfrey (leg) on the sidelines for the trip to Leeds, with one of Michael Keane, Seamus Coleman or Vitalii Mykolenko set to deputise at centre-half at Elland Road. Neal Maupay is also poised to be involved in the squad but after not kicking a ball competitively since May and after only training with the full Everton squad once before game-day, Frank Lampard may instead opt to ease him into the action gradually - especially with a team as high-octane as Leeds providing the opposition on Tuesday. Tom Davies is an alternative in the engine room should summer recruit Amadou Onana not be able to withstand the rigours of two starts in little more than 72 hours but Lampard doesn't have too many senior alternatives beyond that, with this surely not being a match for the plodding Salomon Rondon to feature in.</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leeds United: Crysencio Summerville (ankle), Stuart Dallas (leg), Adam Forshaw (knee) and Tyler Roberts (hamstring) are out for the season but Patrick Bamford (foot) is scheduled to return to outside training this week. Leeds lost Liam Cooper to a warm-up injury ahead of their defeat to Manchester City, with Jesse Marsch hopeful that the “weird feeling” the Scot felt behind his knee is nothing serious. Further updates to follow after the pre-match press conferences.</t>
+          <t>Fulham: Manor Solomon (knee) and Harry Wilson (knee) remain out but Marco Silva has no fresh fitness concerns heading into Tuesday's match. Another week without any recruitment leaves Silva with few alternatives to choose from in the middle of the park and in attack, with central midfielders Tom Cairney and Nathaniel Chalobah and rookie forward Jay Stansfield the underwhelming alternatives warming the bench. The likes of Issa Diop, Kevin Mbabu and Shane Duffy offer defensive depth, at least, but the back four has performed admirably over the first four Gameweeks of 2022/23 and they were only a couple of unlucky deflections away from shutting outside the free-scoring league leaders last weekend. As is the case with a host of other clubs in this three-game week, it'll be as much fatigue and fitness as form that will dictate who gets the nod in midweek.</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leicester City: Wilfred Ndidi (knee) and Ryan Bertrand (knee) remain out for the long term but Leicester are otherwise in decent shape ahead of not just Gameweek 36 but their crucial UEFA Europa League tie against Roma. James Maddison (hip) and Kiernan-Dewsbury Hall (muscle) were both absent from the team that faced Spurs with minor issues but Brendan Rodgers did suggest that their absences were precautionary and they have since been passed fit. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Leeds United: </t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liverpool: Jurgen Klopp had an almost fully-fit squad going into Saturday’s win over Newcastle, with Roberto Firmino the only significant absentee because of a minor foot problem. The Brazilian is still feeling pain and wasn’t involved against Villarreal on Tuesday but Klopp is hopeful that he will return “sooner rather than later”. Divock Origi had been affected by a stomach bug ahead of Gameweek 35 but is now back in training. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Leicester City: </t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manchester City: Kyle Walker (ankle) was back in training ahead of Manchester City’s Champions League tie against Real Madrid, while Nathan Ake was also present despite hobbling off on Saturday. Both players travelled to Spain, leaving only John Stones (muscle) on the sidelines. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Liverpool: </t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Manchester United: Paul Pogba (calf), Luke Shaw (leg) and Jadon Sancho (tonsillitis) will miss the trip to Brighton and face a fight to be fit before the end of the season. Harry Maguire (knee) and Aaron Wan-Bissaka (unspecified) were also absent for Monday’s match against Brentford, with further news awaited on those two from Ralf Rangnick; Maguire’s issue had previously been described as minor by his boss. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Manchester City: </t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Newcastle United: Ryan Fraser (hamstring) is touch and go to feature again in 2021/22 but Kieran Trippier (foot) and Callum Wilson (calf) aren’t too far away from a return, with Trippier an outside chance to feature against Manchester City this weekend. Fabian Schar (ankle) is a fresh addition to the injury list, with Eddie Howe unsurprisingly unable to offer anything concrete on the Swiss defender when interviewed after Saturday’s game. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Manchester United: </t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Norwich City: Ozan Kabak (hamstring), Adam Idah (ankle/knee) and Andrew Omobamidele (back) are all likely out for the season, while further news is awaited on Christoph Zimmermann after he missed the defeat to Aston Villa with a hip flexor issue. The relegated Canaries suffered two more injury blows at the weekend with Kenny McLean (toe) and Josh Sargent (ankle) suffering recurrences of existing problems. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Newcastle United: </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Southampton: Tino Livramento (knee) is the only Southampton player on the sidelines at the time of writing: he was stretchered off in the two-all draw with Brighton and Hove Albion and has since been ruled out for the rest of 2022. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Nottingham Forest: </t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur: Matt Doherty (knee), Oliver Skipp (groin) and Japhet Tanganga (knee) are out until the end of the season, while Sergio Reguilon is a relatively fresh addition to the injury list, with groin pain putting paid to his involvement on Sunday. We haven’t yet got a timeframe on the Spaniard’s recovery. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Southampton: </t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Watford: Cucho Hernandez (hamstring) looks set to remain unavailable ahead of Watford’s Double Gameweek and faces a race against time to be back before the end of the season. The Hornets don’t have any other known injury issues, with Francisco Sierralta (calf) not involved of late but back in training. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Tottenham Hotspur: </t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>West Ham United: West Ham’s crisis at centre-half is abating, as Craig Dawson returns from suspension in Gameweek 36. Kurt Zouma (ankle) and Issa Diop have also made swifter-than-expected returns, the former starting both of the Hammers’ last two competitive matches and the latter on the bench for the defeat to Arsenal. Angelo Ogbonna (knee) remains out, however. Meanwhile, Ben Johnson was absent from Sunday’s loss due to a thigh strain. David Moyes will face the media again on Wednesday, ahead of the Europa League tie against Eintracht Frankfurt, so we should get a further update on the budget defender then. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">West Ham United: </t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers: Max Kilman (muscle) and Daniel Podence (foot) were ruled out of Wolves’ loss to Brighton but Ruben Neves (knee) made a return in a pre-planned 45-minute outing. Kilman is reportedly facing a major fight to play again this season. Nelson Semedo succumbed to a hamstring injury on Saturday, meanwhile. Further updates to follow after the pre-match press conferences.</t>
+          <t xml:space="preserve">Wolverhampton Wanderers: </t>
         </is>
       </c>
     </row>
